--- a/data/Game/Religion.xlsx
+++ b/data/Game/Religion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75509D2-856B-4B43-991F-5694BEB05673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55B6653-B32B-4A42-B8CA-7D9D9E358666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14415" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Religion" sheetId="1" r:id="rId1"/>
@@ -931,17 +931,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="17" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>

--- a/data/Game/Religion.xlsx
+++ b/data/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>
